--- a/pred_ohlcv/54_23/2019-10-16 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-16 DAC ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -418,7 +418,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +507,10 @@
         <v>4.34</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -668,10 +668,10 @@
         <v>4.34</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1059,10 +1059,10 @@
         <v>4.32</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1082,10 +1082,10 @@
         <v>4.32</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1105,10 +1105,10 @@
         <v>4.32</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1131,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -3727,7 +3727,7 @@
         <v>4.54</v>
       </c>
       <c r="F146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -3750,7 +3750,7 @@
         <v>4.47</v>
       </c>
       <c r="F147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -3773,7 +3773,7 @@
         <v>4.52</v>
       </c>
       <c r="F148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="G231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="G232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="G236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
@@ -5892,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="G240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243">
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="G246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -6053,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -6145,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="G251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252">
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254">
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255">
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256">
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257">
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259">
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="G259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260">
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261">
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="G261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263">
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="G263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264">
@@ -6444,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="G265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266">
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="G268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="G269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270">
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="G270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271">
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272">
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274">
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275">
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277">
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280">
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -6881,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284">
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -6927,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286">
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287">
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288">
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289">
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290">
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291">
@@ -7065,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292">
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294">
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295">
@@ -7157,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296">
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298">
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299">
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="G299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300">
@@ -7272,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301">
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="G302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="G303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304">
@@ -7364,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="G304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305">
@@ -7387,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="G305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307">
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="G308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="G309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -7525,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="G313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -7594,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315">
@@ -7617,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="G315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316">
@@ -7640,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="G317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318">
@@ -7686,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319">
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320">
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="G320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321">
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="G321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322">
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="G322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323">
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324">
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -7847,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326">
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -7893,7 +7893,7 @@
         <v>0</v>
       </c>
       <c r="G327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328">
@@ -7916,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="G329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330">
@@ -7962,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331">
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332">
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="G334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="G335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336">
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="G337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338">
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339">
@@ -8169,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341">
@@ -8212,10 +8212,10 @@
         <v>4.47</v>
       </c>
       <c r="F341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342">
@@ -8235,10 +8235,10 @@
         <v>4.48</v>
       </c>
       <c r="F342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -8258,10 +8258,10 @@
         <v>4.48</v>
       </c>
       <c r="F343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344">
@@ -8281,10 +8281,10 @@
         <v>4.45</v>
       </c>
       <c r="F344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345">
@@ -8304,10 +8304,10 @@
         <v>4.43</v>
       </c>
       <c r="F345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346">
@@ -8330,7 +8330,7 @@
         <v>1</v>
       </c>
       <c r="G346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347">
@@ -8353,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="G347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348">
@@ -8376,7 +8376,7 @@
         <v>1</v>
       </c>
       <c r="G348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -8396,10 +8396,10 @@
         <v>4.43</v>
       </c>
       <c r="F349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -8422,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="G350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -8442,10 +8442,10 @@
         <v>4.42</v>
       </c>
       <c r="F351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -8468,7 +8468,7 @@
         <v>1</v>
       </c>
       <c r="G352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -8491,7 +8491,7 @@
         <v>1</v>
       </c>
       <c r="G353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -8514,7 +8514,7 @@
         <v>1</v>
       </c>
       <c r="G354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -8534,13 +8534,13 @@
         <v>4.42</v>
       </c>
       <c r="F355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>